--- a/resource/Rrelatorio_comissao_07-08_2025.xlsx
+++ b/resource/Rrelatorio_comissao_07-08_2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8250"/>
+    <workbookView windowWidth="19545" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -771,7 +771,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,21 +1139,21 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="35.1504424778761" customWidth="1"/>
-    <col min="2" max="2" width="14.4601769911504" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.38053097345133" customWidth="1"/>
-    <col min="4" max="4" width="4.45132743362832" customWidth="1"/>
-    <col min="5" max="5" width="7.24778761061947" customWidth="1"/>
-    <col min="6" max="6" width="12.3628318584071" customWidth="1"/>
-    <col min="7" max="7" width="9.12389380530973" customWidth="1"/>
+    <col min="1" max="1" width="35.152380952381" customWidth="1"/>
+    <col min="2" max="2" width="14.4571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.38095238095238" customWidth="1"/>
+    <col min="4" max="4" width="4.44761904761905" customWidth="1"/>
+    <col min="5" max="5" width="7.24761904761905" customWidth="1"/>
+    <col min="6" max="6" width="12.3619047619048" customWidth="1"/>
+    <col min="7" max="7" width="25.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="16.5" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1164,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1202,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="4" ht="15.75"/>
+    <row r="5" ht="15.75" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1217,7 +1218,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="6" ht="15.75"/>
+    <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1234,8 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="8" ht="15.75"/>
+    <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1250,8 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="10" ht="15.75"/>
+    <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1266,8 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="12" ht="15.75"/>
+    <row r="13" ht="15.75" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +1282,8 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="14" ht="15.75"/>
+    <row r="15" ht="15.75" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1298,8 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="16" ht="15.75"/>
+    <row r="17" ht="15.75" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1314,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="18" ht="15.75"/>
+    <row r="19" ht="15.75" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1330,8 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="20" ht="15.75"/>
+    <row r="21" ht="15.75" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1346,8 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="22" ht="15.75"/>
+    <row r="23" ht="15.75" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -1352,7 +1362,8 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="24" ht="15.75"/>
+    <row r="25" ht="15.75" spans="1:7">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1378,8 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="26" ht="15.75"/>
+    <row r="27" ht="15.75" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
@@ -1387,6 +1399,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>